--- a/itens_conf/Hlayisa_Orcamento.xlsx
+++ b/itens_conf/Hlayisa_Orcamento.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB109D2-3939-4210-9223-B81FE6669E12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="41">
   <si>
     <t>Entregas</t>
   </si>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$MZN]\ * #,##0.00_);_([$MZN]\ * \(#,##0.00\);_([$MZN]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -535,54 +536,6 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_([$MZN]\ * #,##0.00_);_([$MZN]\ * \(#,##0.00\);_([$MZN]\ * &quot;-&quot;??_);_(@_)"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -614,6 +567,54 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -994,34 +995,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:AA16" totalsRowShown="0" headerRowDxfId="25" tableBorderDxfId="24">
-  <autoFilter ref="C3:AA16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="C3:AA16" totalsRowShown="0" headerRowDxfId="25" tableBorderDxfId="24">
+  <autoFilter ref="C3:AA16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="25">
-    <tableColumn id="1" name="Column1" dataDxfId="23"/>
-    <tableColumn id="2" name="Column2" dataDxfId="22"/>
-    <tableColumn id="3" name="Column3" dataDxfId="21"/>
-    <tableColumn id="4" name="Column4" dataDxfId="20"/>
-    <tableColumn id="5" name="Column5" dataDxfId="19"/>
-    <tableColumn id="6" name="Column6" dataDxfId="18"/>
-    <tableColumn id="7" name="Column7" dataDxfId="17"/>
-    <tableColumn id="8" name="Column8" dataDxfId="16"/>
-    <tableColumn id="9" name="Column9" dataDxfId="15"/>
-    <tableColumn id="10" name="Column10" dataDxfId="14"/>
-    <tableColumn id="11" name="Column11" dataDxfId="13"/>
-    <tableColumn id="12" name="Column12" dataDxfId="12"/>
-    <tableColumn id="13" name="Column13" dataDxfId="11"/>
-    <tableColumn id="14" name="Column14" dataDxfId="10"/>
-    <tableColumn id="15" name="Column15" dataDxfId="9"/>
-    <tableColumn id="16" name="Column16" dataDxfId="8"/>
-    <tableColumn id="17" name="Column17" dataDxfId="7"/>
-    <tableColumn id="18" name="Column18" dataDxfId="6"/>
-    <tableColumn id="19" name="Column19" dataDxfId="5"/>
-    <tableColumn id="25" name="Column194" dataDxfId="0"/>
-    <tableColumn id="24" name="Column193" dataDxfId="1"/>
-    <tableColumn id="23" name="Column192" dataDxfId="2"/>
-    <tableColumn id="20" name="Column20" dataDxfId="4"/>
-    <tableColumn id="21" name="Column21"/>
-    <tableColumn id="22" name="Column22" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column194" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column193" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column192" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1289,11 +1290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,13 +2115,13 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
       <c r="G16" s="19">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -2141,7 +2142,10 @@
       <c r="X16" s="39"/>
       <c r="Y16" s="40"/>
       <c r="Z16" s="42"/>
-      <c r="AA16" s="41"/>
+      <c r="AA16" s="41">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>600</v>
+      </c>
     </row>
     <row r="17" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C17" s="34"/>
@@ -2171,8 +2175,8 @@
       <c r="Y17" s="28"/>
       <c r="Z17" s="29"/>
       <c r="AA17" s="31">
-        <f>SUM(AA7:AA10)</f>
-        <v>333332.39999999997</v>
+        <f>SUM(AA7:AA16)</f>
+        <v>1217269.8</v>
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.25">
@@ -2204,7 +2208,7 @@
       <c r="Z18" s="33"/>
       <c r="AA18" s="30">
         <f>0.2*AA17+AA17</f>
-        <v>399998.87999999995</v>
+        <v>1460723.76</v>
       </c>
     </row>
   </sheetData>
